--- a/biology/Médecine/Karl_Borromäus_von_Harrach/Karl_Borromäus_von_Harrach.xlsx
+++ b/biology/Médecine/Karl_Borromäus_von_Harrach/Karl_Borromäus_von_Harrach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karl_Borrom%C3%A4us_von_Harrach</t>
+          <t>Karl_Borromäus_von_Harrach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Borromäus, comte d'Harrach, est un médecin autrichien, né à Vienne le 11 mai 1761 et mort le 19 octobre 1829, membre de la famille noble Harrach.
-Il étudia le droit et la médecine, devint conseiller de régence à Prague, puis fit des voyages, prit le grade de docteur en médecine et se fixa à Vienne. Il fut, pendant vingt-cinq ans, le médecin gratuit des pauvres. La maison de ce philanthrope, qui professait les idées les plus libérales, devint le rendez-vous des hommes les plus distingués de Vienne[1].
+Il étudia le droit et la médecine, devint conseiller de régence à Prague, puis fit des voyages, prit le grade de docteur en médecine et se fixa à Vienne. Il fut, pendant vingt-cinq ans, le médecin gratuit des pauvres. La maison de ce philanthrope, qui professait les idées les plus libérales, devint le rendez-vous des hommes les plus distingués de Vienne.
 </t>
         </is>
       </c>
